--- a/output.xlsx
+++ b/output.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,16 +381,6 @@
           <t>2019-04-06</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2019-04-07</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2019-04-08</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -401,12 +391,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -415,12 +399,6 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -435,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +432,6 @@
           <t>2019-04-06</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2019-04-07</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2019-04-08</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,12 +442,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -488,12 +450,6 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
         <v>64763</v>
       </c>
     </row>
@@ -508,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,16 +483,6 @@
           <t>2019-04-06</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2019-04-07</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2019-04-08</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -545,12 +491,6 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
         <v>26671</v>
       </c>
     </row>
@@ -561,12 +501,6 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
         <v>105257</v>
       </c>
     </row>
@@ -581,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,16 +534,6 @@
           <t>2019-04-06</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2019-04-07</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2019-04-08</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -620,12 +544,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -634,12 +552,6 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,16 +585,6 @@
           <t>2019-04-06</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2019-04-07</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2019-04-08</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -693,12 +595,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -707,12 +603,6 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,26 +371,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Websites</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04-07</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>www.istitutocomprensivotrebisacce.gov.it</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>www.iscmontegiorgio.it</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>www.istitutocomprensivotrebisacce.gov.it</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1</v>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -404,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,26 +444,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Websites</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04-07</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>www.istitutocomprensivotrebisacce.gov.it</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>www.iscmontegiorgio.it</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>www.istitutocomprensivotrebisacce.gov.it</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>64761</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1</v>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64763</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,26 +517,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Websites</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04-07</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>www.istitutocomprensivotrebisacce.gov.it</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26671</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>www.iscmontegiorgio.it</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>www.istitutocomprensivotrebisacce.gov.it</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>105253</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26671</v>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105257</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,26 +590,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Websites</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04-07</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>www.istitutocomprensivotrebisacce.gov.it</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>www.iscmontegiorgio.it</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>www.istitutocomprensivotrebisacce.gov.it</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1</v>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,26 +663,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Websites</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04-07</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>www.istitutocomprensivotrebisacce.gov.it</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>www.iscmontegiorgio.it</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>www.istitutocomprensivotrebisacce.gov.it</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-1</v>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129694</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40523</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105255</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">

--- a/output.xlsx
+++ b/output.xlsx
@@ -388,8 +388,10 @@
           <t>www.istitutocomprensivotrebisacce.gov.it</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bad Request</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -399,7 +401,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -449,8 +451,10 @@
           <t>www.istitutocomprensivotrebisacce.gov.it</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bad Request</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -460,7 +464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4">
@@ -510,8 +514,10 @@
           <t>www.istitutocomprensivotrebisacce.gov.it</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bad Request</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -521,7 +527,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4">
@@ -571,8 +577,10 @@
           <t>www.istitutocomprensivotrebisacce.gov.it</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bad Request</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -632,8 +640,10 @@
           <t>www.istitutocomprensivotrebisacce.gov.it</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bad Request</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -643,7 +653,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
